--- a/outputs/rpwa1-3.xlsx
+++ b/outputs/rpwa1-3.xlsx
@@ -4,6 +4,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Table 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Table 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Table 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Summary" sheetId="5" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
@@ -397,62 +401,5420 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
-    <col min="1" max="1" width="50.83203125" customWidth="1"/>
+    <col min="1" max="1" width="37.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="25.83203125" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="27.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="35.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>Text</v>
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Form RPWA 1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>--- Page 1 ---</v>
+        <v/>
+      </c>
+      <c r="B2" t="str">
+        <v/>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <v/>
+      </c>
+      <c r="E2" t="str">
+        <v>Government of Rajasthan</v>
+      </c>
+      <c r="F2" t="str">
+        <v/>
+      </c>
+      <c r="G2" t="str">
+        <v/>
+      </c>
+      <c r="H2" t="str">
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Government of Rajasthan  Public Works Department, Jaipur  PWD103: X.En.PWD. Electric Div.Udr. (12189)  Jun, 2022 CASH BOOK ( Ver 1.0 )  (Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)  Form RPWA 1  RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  1   Opening Balance   0.00  2   01-06-2022   TVNo: 11865   Mitul Enterprises (AgreeMentNo 30/2021- 22, Electric repair work in Ist,IIIrd &amp; IV th Type Quarters at Udaipur)  11,960.00   4485: SD2, 2990: I-Tax, 2990: GSTIN Deduction, 1495: Labour-Welfare,  01-06-2022   Tvno: 11298   Mitul Enterprises , Paymanager Bill No: 39882020, Bill Type: Deposit Refund  29461.00   29,461   8443-00-108-00-00  3   01-06-2022   TVNo: 11866   Vikas Enterprises (AgreeMentNo 29/2021- 22, Supply of experienced wireman Electricians for day to day maintenance for MB hospital and its associates building Udaipur)  939.00   469: I-Tax, 470: GSTIN Deduction,  01-06-2022   Tvno: 11865   Mitul Enterprises (Wo.No.:534 , Wo. Date:01/09/2021, AgreeMentNo 30/2021- 22, Electric repair work in Ist,IIIrd &amp; IV th Type Quarters at Udaipur) , Paymanager Bill No: 39859662, Bill Type: Work Order Payments (1 Running)  11,960   137535.00   1,49,495   2216-05-053-01-08-21-V-P  4   01-06-2022   TVNo: 11868   Som Electricals (AgreeMentNo 13/2020- 21, E/f in ADJ Court Kherwara Distt Udaipur)  44,303.00   24202: SD2, 4840: I-Tax, 4841: GSTIN Deduction, 2420: Labour-Welfare, 8000: MD5,  01-06-2022   Tvno: 11866   Vikas Enterprises (Wo.No.:531 , Wo. Date:01/09/2021, AgreeMentNo 29/2021- 22, Supply of experienced wireman Electricians for day to day maintenance for MB hospital and its associates building Udaipur) , Paymanager Bill No: 39859752, Bill Type: Work Order Payments (4 Running)  939   22512.00   23,451   8443-00-108-00-00  5   0.00   01-06-2022   Tvno: 11868   Som Electricals (Wo.No.:174 , Wo. Date:17/06/2020, AgreeMentNo 13/2020- 21, E/f in ADJ Court Kherwara Distt Udaipur) , Paymanager Bill No: 39882036, Bill Type: Work Order Payments (2 &amp; Final)  44,303   197721.00   2,42,024   4059-80-051-03-03-17-V-P  6   03-06-2022   CrNo: 063386/57   Vikas Enterprises   380.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812350 GRN:62859440  Remittance to Treasury   380   0.00   380   8443-00-108-00-00  7   03-06-2022   CrNo: 063386/59   Vikas Enterprises   925.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812351 GRN:62859564  Remittance to Treasury   240   0.00   240   8443-00-108-00-00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:34 PM) Page 1 of 4</v>
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <v>Public Works Department, Jaipur</v>
+      </c>
+      <c r="E3" t="str">
+        <v/>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>--- Page 2 ---</v>
+        <v>PWD103: X.En.PWD. Electric Div.Udr.</v>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v>CASH BOOK (</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Ver 1.0 )</v>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <v>Jun, 2022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  8   03-06-2022   CrNo: 063386/60   Vikas Enterprises   750.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812352 GRN:62859687  Remittance to Treasury   925   0.00   925   8443-00-108-00-00  9   03-06-2022   CrNo: 063386/61   Vikas Enterprises   900.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812353 GRN:62859736  Remittance to Treasury   750   0.00   750   8443-00-108-00-00  10   03-06-2022   CrNo: 063386/62   Vikas Enterprises   820.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812354 GRN:62859924  Remittance to Treasury   900   0.00   900   8443-00-108-00-00  11   03-06-2022   CrNo: 063386/63   Vikas Enterprises   1,200.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812355 GRN:62859979  Remittance to Treasury   820   0.00   820   8443-00-108-00-00  12   03-06-2022   CrNo: 063386/64   Vikas Enterprises   315.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812356 GRN:62860129  Remittance to Treasury   1,200   0.00   1,200   8443-00-108-00-00  13   03-06-2022   CrNo: 063386/65   Vikas Enterprises   900.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812357 GRN:62860230  Remittance to Treasury   315   0.00   315   8443-00-108-00-00  14   03-06-2022   CrNo: 063386/66   Seema Electricals   1,875.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812358 GRN:62860318  Remittance to Treasury   900   0.00   900   8443-00-108-00-00  15   03-06-2022   CrNo: 063386/67   Seema Electricals   2,715.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812359 GRN:62860383  Remittance to Treasury   1,875   0.00   1,875   8443-00-108-00-00  16   03-06-2022   CrNo: 063386/58   Vikas Enterprises   240.00   8443-00-108-00-00   03-06-2022   ChlnNo: 1812360 GRN:62860465  Remittance to Treasury   2,715   0.00   2,715   8443-00-108-00-00  17   0.00   09-06-2022   Tvno: 20201   GST Adjustment Bill   10671.00   10,671   8658-00-139-00-00  18   13-06-2022   CrNo: Ch No: 2095446  Metro International   500.00   0075-00-800-52-01   13-06-2022   ChlnNo: 2095446 GRN:63362056  Remittance to Treasury   3,900   0.00   3,900   0075-00-800-52-01, 8443- 00-108-00-00  19   13-06-2022   CrNo: Ch No: 2095446  Metro International   3,400.00   8443-00-108-00-00   0.00  20   0.00   16-06-2022   Tvno: 14560   Mitul Enterprises , Paymanager Bill No: 40133642, Bill Type: Deposit Refund  17873.00   17,873   8443-00-108-00-00  21   0.00   16-06-2022   Tvno: 14561   Seema Electricals , Paymanager Bill No: 40133653, Bill Type: Deposit Refund  89473.00   89,473   8443-00-108-00-00  22   0.00   16-06-2022   Tvno: 14562   Vikas Enterprises , Paymanager Bill No: 40133663, Bill Type: Deposit Refund  170964.00   1,70,964   8443-00-108-00-00  23   21-06-2022   TVNo: 15066   Mitul Enterprises (AgreeMentNo 15/2021- 22, Supply and Providing wireman for Elect mtc in Various Residence and Non Residence building Udaipur)  772.00   386: I-Tax, 386: GSTIN Deduction,  21-06-2022   Tvno: 15064   Rahul Sadhwani , Paymanager Bill No: 40133566, Bill Type: HR Payment Less than 30 thousands  4200.00   4,200   4216-01-700-03-90-17-V-P  24   21-06-2022   TVNo: 15067   Mitul Enterprises (AgreeMentNo 15/2021- 22, Supply and Providing wireman for Elect mtc in Various Residence and Non Residence building Udaipur)  915.00   457: I-Tax, 458: GSTIN Deduction,  21-06-2022   Tvno: 15065   Rahul Sadhwani , Paymanager Bill No: 40133578, Bill Type: HR Payment Less than 30 thousands  4200.00   4,200   4216-01-700-03-90-17-V-P  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:34 PM) Page 2 of 4</v>
+        <v>(12189)</v>
+      </c>
+      <c r="B5" t="str">
+        <v/>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v/>
+      </c>
+      <c r="E5" t="str">
+        <v/>
+      </c>
+      <c r="F5" t="str">
+        <v/>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v/>
+      </c>
+      <c r="I5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>--- Page 3 ---</v>
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>(Refered to in Rules 99, 100, 104, 117, 118, 128, 158 and 686)</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v/>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>RECEIPT SIDE   PAYMENT SIDE  S No.  Date of Receipt  Voucher No / Receipt No  From whom Received  Amount (Cash)  Classification of Receipt  Date of Payment  Voucher No.   To whom Paid   Payments   Classification of Charges  Cash   Treasury   Total  25   21-06-2022   TVNo: 15205   Mitul Enterprises (AgreeMentNo 52/2021- 22, Elect Repair and Mtc work in SP Office Rajsamand 2021-22)  9,048.00   3393: SD2, 2262: I-Tax, 2262: GSTIN Deduction, 1131: Labour-Welfare,  21-06-2022   Tvno: 15066   Mitul Enterprises (Wo.No.:347 , Wo. Date:30/07/2021, AgreeMentNo 15/2021- 22, Supply and Providing wireman for Elect mtc in Various Residence and Non Residence building Udaipur) , Paymanager Bill No: 40133589, Bill Type: Work Order Payments (3 Running)  772   18538.00   19,310   2059-80-053-01-01-21-V-P  26   0.00   21-06-2022   Tvno: 15067   Mitul Enterprises (Wo.No.:347 , Wo. Date:30/07/2021, AgreeMentNo 15/2021- 22, Supply and Providing wireman for Elect mtc in Various Residence and Non Residence building Udaipur) , Paymanager Bill No: 40133627, Bill Type: Work Order Payments (4 Running)  915   21952.00   22,867   2059-80-053-01-01-21-V-P  27   0.00   21-06-2022   Tvno: 15068   H M Engineers , Paymanager Bill No: 40133635, Bill Type: Deposit Refund  200000.00   2,00,000   8443-00-108-00-00  28   0.00   21-06-2022   Tvno: 15069   Gupta Redio and Electricals , Paymanager Bill No: 40133649, Bill Type: Deposit Refund  299903.00   2,99,903   8443-00-108-00-00  29   0.00   21-06-2022   Tvno: 15205   Mitul Enterprises (Wo.No.:1112 , Wo. Date:05/01/2022, AgreeMentNo 52/2021- 22, Elect Repair and Mtc work in SP Office Rajsamand 2021-22) , Paymanager Bill No: 40091421, Bill Type: Work Order Payments (3 &amp; Final)  9,048   104068.00   1,13,116   2059-80-053-12-00-21-V-P  30   24-06-2022   CrNo: Ch No: 2489738  Mitul Enterprises   1,000.00   0075-00-800-52-01   24-06-2022   ChlnNo: 2489738 GRN:63802514  Remittance to Treasury   20,600   0.00   20,600   0075-00-800-52-01, 8443- 00-108-00-00  31   24-06-2022   CrNo: Ch No: 2489738  Mitul Enterprises   19,600.00   8443-00-108-00-00   24-06-2022   ChlnNo: 2493065 GRN:63818796  Remittance to Treasury   20,600   0.00   20,600   0075-00-800-52-01, 8443- 00-108-00-00  32   24-06-2022   CrNo: Ch No: 2493065  Neha Electric   1,000.00   0075-00-800-52-01   0.00  33   24-06-2022   CrNo: Ch No: 2493065  Neha Electric   19,600.00   8443-00-108-00-00   0.00  34   Closing Balance  124057.00   124057.00   1329071.00   1453128.00  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:34 PM) Page 3 of 4</v>
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v/>
+      </c>
+      <c r="C7" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D7" t="str">
+        <v/>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v/>
+      </c>
+      <c r="G7" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>--- Page 4 ---</v>
+        <v>S Date of</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C8" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G8" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="I8" t="str">
+        <v>Classification of</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Signature of Sr.DAO/DAO/DA with seal   Signature of DO with seal  (A.L.Verma, Sr.D.A.O.)   (Deepak Pareek, Ee Pwd Elect Dn Udaipur)  Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:34 PM) Page 4 of 4</v>
+        <v>No. Receipt</v>
+      </c>
+      <c r="B9" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C9" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D9" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F9" t="str">
+        <v/>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v/>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>1</v>
+      </c>
+      <c r="B11" t="str">
+        <v>Opening Balance</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v/>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>2 01-06-2022</v>
+      </c>
+      <c r="B12" t="str">
+        <v>TVNo: 11865 Mitul Enterprises</v>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v>11,960.00 4485: SD2, 2990: I-Tax,</v>
+      </c>
+      <c r="E12" t="str">
+        <v>01-06-2022</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Tvno: 11298</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Mitul Enterprises ,</v>
+      </c>
+      <c r="H12" t="str">
+        <v>29461.00</v>
+      </c>
+      <c r="I12" t="str">
+        <v>29,461 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v>(AgreeMentNo 30/2021-</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>2990: GSTIN Deduction,</v>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v/>
+      </c>
+      <c r="G13" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v>22, Electric repair work in</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v>1495: Labour-Welfare,</v>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v/>
+      </c>
+      <c r="G14" t="str">
+        <v>39882020, Bill Type:</v>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v>Ist,IIIrd &amp; IV th Type</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v/>
+      </c>
+      <c r="G15" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v>Quarters at Udaipur)</v>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v/>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>3 01-06-2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>TVNo: 11866 Vikas Enterprises</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>939.00 469: I-Tax, 470: GSTIN</v>
+      </c>
+      <c r="E17" t="str">
+        <v>01-06-2022</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Tvno: 11865</v>
+      </c>
+      <c r="G17" t="str">
+        <v>Mitul Enterprises</v>
+      </c>
+      <c r="H17" t="str">
+        <v>11,960 137535.00</v>
+      </c>
+      <c r="I17" t="str">
+        <v>1,49,495 2216-05-053-01-08-21-V-P</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v>(AgreeMentNo 29/2021-</v>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>Deduction,</v>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v/>
+      </c>
+      <c r="G18" t="str">
+        <v>(Wo.No.:534 , Wo.</v>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v>22, Supply of</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v/>
+      </c>
+      <c r="G19" t="str">
+        <v>Date:01/09/2021,</v>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v>experienced wireman</v>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v/>
+      </c>
+      <c r="G20" t="str">
+        <v>AgreeMentNo 30/2021-</v>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v>Electricians for day to</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v/>
+      </c>
+      <c r="G21" t="str">
+        <v>22, Electric repair work</v>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v>day maintenance for MB</v>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v/>
+      </c>
+      <c r="G22" t="str">
+        <v>in Ist,IIIrd &amp; IV th Type</v>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v>hospital and its</v>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v/>
+      </c>
+      <c r="G23" t="str">
+        <v>Quarters at Udaipur) ,</v>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v>associates building</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v/>
+      </c>
+      <c r="G24" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>Udaipur)</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v/>
+      </c>
+      <c r="G25" t="str">
+        <v>39859662, Bill Type:</v>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v>(1 Running)</v>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>4 01-06-2022</v>
+      </c>
+      <c r="B28" t="str">
+        <v>TVNo: 11868 Som Electricals</v>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>44,303.00 24202: SD2, 4840: I-Tax,</v>
+      </c>
+      <c r="E28" t="str">
+        <v>01-06-2022</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Tvno: 11866</v>
+      </c>
+      <c r="G28" t="str">
+        <v>Vikas Enterprises</v>
+      </c>
+      <c r="H28" t="str">
+        <v>939 22512.00</v>
+      </c>
+      <c r="I28" t="str">
+        <v>23,451 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v>(AgreeMentNo 13/2020-</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>4841: GSTIN Deduction,</v>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v/>
+      </c>
+      <c r="G29" t="str">
+        <v>(Wo.No.:531 , Wo.</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v>21, E/f in ADJ Court</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>2420: Labour-Welfare,</v>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v/>
+      </c>
+      <c r="G30" t="str">
+        <v>Date:01/09/2021,</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v>Kherwara Distt Udaipur)</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v>8000: MD5,</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v/>
+      </c>
+      <c r="G31" t="str">
+        <v>AgreeMentNo 29/2021-</v>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v/>
+      </c>
+      <c r="G32" t="str">
+        <v>22, Supply of</v>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v/>
+      </c>
+      <c r="G33" t="str">
+        <v>experienced wireman</v>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v/>
+      </c>
+      <c r="G34" t="str">
+        <v>Electricians for day to</v>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v/>
+      </c>
+      <c r="G35" t="str">
+        <v>day maintenance for</v>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v/>
+      </c>
+      <c r="G36" t="str">
+        <v>MB hospital and its</v>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v/>
+      </c>
+      <c r="G37" t="str">
+        <v>associates building</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v/>
+      </c>
+      <c r="G38" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v/>
+      </c>
+      <c r="G39" t="str">
+        <v>Bill No: 39859752, Bill</v>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v/>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v/>
+      </c>
+      <c r="E40" t="str">
+        <v/>
+      </c>
+      <c r="F40" t="str">
+        <v/>
+      </c>
+      <c r="G40" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v/>
+      </c>
+      <c r="G41" t="str">
+        <v>Payments (4 Running)</v>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>5</v>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E42" t="str">
+        <v>01-06-2022</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Tvno: 11868</v>
+      </c>
+      <c r="G42" t="str">
+        <v>Som Electricals</v>
+      </c>
+      <c r="H42" t="str">
+        <v>44,303 197721.00</v>
+      </c>
+      <c r="I42" t="str">
+        <v>2,42,024 4059-80-051-03-03-17-V-P</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v/>
+      </c>
+      <c r="G43" t="str">
+        <v>(Wo.No.:174 , Wo.</v>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v/>
+      </c>
+      <c r="G44" t="str">
+        <v>Date:17/06/2020,</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v>AgreeMentNo 13/2020-</v>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v>21, E/f in ADJ Court</v>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v/>
+      </c>
+      <c r="G47" t="str">
+        <v>Kherwara Distt</v>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v/>
+      </c>
+      <c r="G48" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v/>
+      </c>
+      <c r="G49" t="str">
+        <v>Bill No: 39882036, Bill</v>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v/>
+      </c>
+      <c r="G50" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v/>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <v/>
+      </c>
+      <c r="G51" t="str">
+        <v>Payments (2 &amp; Final)</v>
+      </c>
+      <c r="H51" t="str">
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>6 03-06-2022</v>
+      </c>
+      <c r="B52" t="str">
+        <v>CrNo: 063386/57 Vikas Enterprises</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v>380.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E52" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F52" t="str">
+        <v>ChlnNo: 1812350</v>
+      </c>
+      <c r="G52" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="H52" t="str">
+        <v>380 0.00</v>
+      </c>
+      <c r="I52" t="str">
+        <v>380 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <v/>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v>GRN:62859440</v>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>7 03-06-2022</v>
+      </c>
+      <c r="B54" t="str">
+        <v>CrNo: 063386/59 Vikas Enterprises</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v>925.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E54" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F54" t="str">
+        <v>ChlnNo: 1812351</v>
+      </c>
+      <c r="G54" t="str">
+        <v>Remittance to Treasury</v>
+      </c>
+      <c r="H54" t="str">
+        <v>240 0.00</v>
+      </c>
+      <c r="I54" t="str">
+        <v>240 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v/>
+      </c>
+      <c r="B55" t="str">
+        <v/>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v/>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v>GRN:62859564</v>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <v/>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Page 1 of 4</v>
+      </c>
+      <c r="B56" t="str">
+        <v/>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:34 PM)</v>
+      </c>
+      <c r="I56" t="str">
+        <v/>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A9"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I56"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="35.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="31.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="32.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C2" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="I2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D3" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>8 03-06-2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>CrNo: 063386/60 Vikas Enterprises</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>750.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E5" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F5" t="str">
+        <v>ChlnNo: 1812352 Remittance to Treasury</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>925 0.00</v>
+      </c>
+      <c r="I5" t="str">
+        <v>925 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v/>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v/>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>GRN:62859687</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>9 03-06-2022</v>
+      </c>
+      <c r="B7" t="str">
+        <v>CrNo: 063386/61 Vikas Enterprises</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>900.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E7" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F7" t="str">
+        <v>ChlnNo: 1812353 Remittance to Treasury</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v>750 0.00</v>
+      </c>
+      <c r="I7" t="str">
+        <v>750 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v/>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>GRN:62859736</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>10 03-06-2022</v>
+      </c>
+      <c r="B9" t="str">
+        <v>CrNo: 063386/62 Vikas Enterprises</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>820.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E9" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F9" t="str">
+        <v>ChlnNo: 1812354 Remittance to Treasury</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v>900 0.00</v>
+      </c>
+      <c r="I9" t="str">
+        <v>900 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>GRN:62859924</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>11 03-06-2022</v>
+      </c>
+      <c r="B11" t="str">
+        <v>CrNo: 063386/63 Vikas Enterprises</v>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v>1,200.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E11" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F11" t="str">
+        <v>ChlnNo: 1812355 Remittance to Treasury</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v>820 0.00</v>
+      </c>
+      <c r="I11" t="str">
+        <v>820 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>GRN:62859979</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>12 03-06-2022</v>
+      </c>
+      <c r="B13" t="str">
+        <v>CrNo: 063386/64 Vikas Enterprises</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v>315.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E13" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F13" t="str">
+        <v>ChlnNo: 1812356 Remittance to Treasury</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v>1,200 0.00</v>
+      </c>
+      <c r="I13" t="str">
+        <v>1,200 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>GRN:62860129</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v>13 03-06-2022</v>
+      </c>
+      <c r="B15" t="str">
+        <v>CrNo: 063386/65 Vikas Enterprises</v>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v>900.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E15" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F15" t="str">
+        <v>ChlnNo: 1812357 Remittance to Treasury</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v>315 0.00</v>
+      </c>
+      <c r="I15" t="str">
+        <v>315 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>GRN:62860230</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v>14 03-06-2022</v>
+      </c>
+      <c r="B17" t="str">
+        <v>CrNo: 063386/66 Seema Electricals</v>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v>1,875.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E17" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F17" t="str">
+        <v>ChlnNo: 1812358 Remittance to Treasury</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v>900 0.00</v>
+      </c>
+      <c r="I17" t="str">
+        <v>900 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v/>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v/>
+      </c>
+      <c r="E18" t="str">
+        <v/>
+      </c>
+      <c r="F18" t="str">
+        <v>GRN:62860318</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v/>
+      </c>
+      <c r="I18" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v>15 03-06-2022</v>
+      </c>
+      <c r="B19" t="str">
+        <v>CrNo: 063386/67 Seema Electricals</v>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v>2,715.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E19" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F19" t="str">
+        <v>ChlnNo: 1812359 Remittance to Treasury</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v>1,875 0.00</v>
+      </c>
+      <c r="I19" t="str">
+        <v>1,875 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>GRN:62860383</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v>16 03-06-2022</v>
+      </c>
+      <c r="B21" t="str">
+        <v>CrNo: 063386/58 Vikas Enterprises</v>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v>240.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E21" t="str">
+        <v>03-06-2022</v>
+      </c>
+      <c r="F21" t="str">
+        <v>ChlnNo: 1812360 Remittance to Treasury</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v>2,715 0.00</v>
+      </c>
+      <c r="I21" t="str">
+        <v>2,715 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v>GRN:62860465</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v>17</v>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E23" t="str">
+        <v>09-06-2022</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Tvno: 20201 GST Adjustment Bill</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v>10671.00</v>
+      </c>
+      <c r="I23" t="str">
+        <v>10,671 8658-00-139-00-00</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>18 13-06-2022</v>
+      </c>
+      <c r="B24" t="str">
+        <v>CrNo: Ch No: Metro International</v>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v>500.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E24" t="str">
+        <v>13-06-2022</v>
+      </c>
+      <c r="F24" t="str">
+        <v>ChlnNo: 2095446 Remittance to Treasury</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v>3,900 0.00</v>
+      </c>
+      <c r="I24" t="str">
+        <v>3,900 0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v>2095446</v>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>GRN:63362056</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v>19 13-06-2022</v>
+      </c>
+      <c r="B26" t="str">
+        <v>CrNo: Ch No: Metro International</v>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v>3,400.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v/>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v>2095446</v>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v/>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>20</v>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E28" t="str">
+        <v>16-06-2022</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Tvno: 14560 Mitul Enterprises ,</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v>17873.00</v>
+      </c>
+      <c r="I28" t="str">
+        <v>17,873 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>40133642, Bill Type:</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v/>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v/>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>21</v>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E32" t="str">
+        <v>16-06-2022</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Tvno: 14561 Seema Electricals ,</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v>89473.00</v>
+      </c>
+      <c r="I32" t="str">
+        <v>89,473 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>40133653, Bill Type:</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v/>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v/>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>22</v>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E36" t="str">
+        <v>16-06-2022</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Tvno: 14562 Vikas Enterprises ,</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v>170964.00</v>
+      </c>
+      <c r="I36" t="str">
+        <v>1,70,964 8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>40133663, Bill Type:</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>23 21-06-2022</v>
+      </c>
+      <c r="B40" t="str">
+        <v>TVNo: 15066 Mitul Enterprises</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>772.00 386: I-Tax, 386: GSTIN</v>
+      </c>
+      <c r="E40" t="str">
+        <v>21-06-2022</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Tvno: 15064 Rahul Sadhwani ,</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v>4200.00</v>
+      </c>
+      <c r="I40" t="str">
+        <v>4,200 4216-01-700-03-90-17-V-P</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v>(AgreeMentNo 15/2021-</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v>Deduction,</v>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v>22, Supply and Providing</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v>40133566, Bill Type:</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v>wireman for Elect mtc in</v>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v>Various Residence and</v>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v>Non Residence building</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v/>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v>Udaipur)</v>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v/>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>24 21-06-2022</v>
+      </c>
+      <c r="B47" t="str">
+        <v>TVNo: 15067 Mitul Enterprises</v>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v>915.00 457: I-Tax, 458: GSTIN</v>
+      </c>
+      <c r="E47" t="str">
+        <v>21-06-2022</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Tvno: 15065 Rahul Sadhwani ,</v>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v>4200.00</v>
+      </c>
+      <c r="I47" t="str">
+        <v>4,200 4216-01-700-03-90-17-V-P</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v>(AgreeMentNo 15/2021-</v>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v>Deduction,</v>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v>22, Supply and Providing</v>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v>40133578, Bill Type:</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v>wireman for Elect mtc in</v>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v>HR Payment Less than</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v/>
+      </c>
+      <c r="B51" t="str">
+        <v>Various Residence and</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v/>
+      </c>
+      <c r="E51" t="str">
+        <v/>
+      </c>
+      <c r="F51" t="str">
+        <v>30 thousands</v>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v/>
+      </c>
+      <c r="I51" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v>Non Residence building</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v/>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v/>
+      </c>
+      <c r="B53" t="str">
+        <v>Udaipur)</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v/>
+      </c>
+      <c r="E53" t="str">
+        <v/>
+      </c>
+      <c r="F53" t="str">
+        <v/>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v/>
+      </c>
+      <c r="I53" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Page 2 of 4</v>
+      </c>
+      <c r="B54" t="str">
+        <v/>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v/>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:34 PM)</v>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:I54"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="32.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="4" max="4" width="34.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="6" max="6" width="40.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="50.83203125" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>RECEIPT SIDE</v>
+      </c>
+      <c r="D1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="E1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="F1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="G1" t="str">
+        <v>PAYMENT SIDE</v>
+      </c>
+      <c r="H1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="I1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="J1" t="str">
+        <v>Column</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>S Date of</v>
+      </c>
+      <c r="B2" t="str">
+        <v>Voucher No /</v>
+      </c>
+      <c r="C2" t="str">
+        <v>From whom Amount</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Classification of</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Date of</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Voucher No.</v>
+      </c>
+      <c r="G2" t="str">
+        <v>To whom Paid</v>
+      </c>
+      <c r="H2" t="str">
+        <v>Payments</v>
+      </c>
+      <c r="I2" t="str">
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <v>Classification of</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>No. Receipt</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Receipt No</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Received</v>
+      </c>
+      <c r="D3" t="str">
+        <v>(Cash) Receipt</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Payment</v>
+      </c>
+      <c r="F3" t="str">
+        <v/>
+      </c>
+      <c r="G3" t="str">
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <v/>
+      </c>
+      <c r="J3" t="str">
+        <v>Charges</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v/>
+      </c>
+      <c r="B4" t="str">
+        <v/>
+      </c>
+      <c r="C4" t="str">
+        <v/>
+      </c>
+      <c r="D4" t="str">
+        <v/>
+      </c>
+      <c r="E4" t="str">
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <v>Cash Treasury Total</v>
+      </c>
+      <c r="I4" t="str">
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>25 21-06-2022</v>
+      </c>
+      <c r="B5" t="str">
+        <v>TVNo: 15205 Mitul Enterprises</v>
+      </c>
+      <c r="C5" t="str">
+        <v/>
+      </c>
+      <c r="D5" t="str">
+        <v>9,048.00 3393: SD2, 2262: I-Tax,</v>
+      </c>
+      <c r="E5" t="str">
+        <v>21-06-2022</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Tvno: 15066 Mitul Enterprises</v>
+      </c>
+      <c r="G5" t="str">
+        <v/>
+      </c>
+      <c r="H5" t="str">
+        <v>772 18538.00</v>
+      </c>
+      <c r="I5" t="str">
+        <v>19,310</v>
+      </c>
+      <c r="J5" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+      <c r="B6" t="str">
+        <v>(AgreeMentNo 52/2021-</v>
+      </c>
+      <c r="C6" t="str">
+        <v/>
+      </c>
+      <c r="D6" t="str">
+        <v>2262: GSTIN Deduction,</v>
+      </c>
+      <c r="E6" t="str">
+        <v/>
+      </c>
+      <c r="F6" t="str">
+        <v>(Wo.No.:347 , Wo.</v>
+      </c>
+      <c r="G6" t="str">
+        <v/>
+      </c>
+      <c r="H6" t="str">
+        <v/>
+      </c>
+      <c r="I6" t="str">
+        <v/>
+      </c>
+      <c r="J6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v/>
+      </c>
+      <c r="B7" t="str">
+        <v>22, Elect Repair and Mtc</v>
+      </c>
+      <c r="C7" t="str">
+        <v/>
+      </c>
+      <c r="D7" t="str">
+        <v>1131: Labour-Welfare,</v>
+      </c>
+      <c r="E7" t="str">
+        <v/>
+      </c>
+      <c r="F7" t="str">
+        <v>Date:30/07/2021,</v>
+      </c>
+      <c r="G7" t="str">
+        <v/>
+      </c>
+      <c r="H7" t="str">
+        <v/>
+      </c>
+      <c r="I7" t="str">
+        <v/>
+      </c>
+      <c r="J7" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v/>
+      </c>
+      <c r="B8" t="str">
+        <v>work in SP Office</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v/>
+      </c>
+      <c r="E8" t="str">
+        <v/>
+      </c>
+      <c r="F8" t="str">
+        <v>AgreeMentNo 15/2021-</v>
+      </c>
+      <c r="G8" t="str">
+        <v/>
+      </c>
+      <c r="H8" t="str">
+        <v/>
+      </c>
+      <c r="I8" t="str">
+        <v/>
+      </c>
+      <c r="J8" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v/>
+      </c>
+      <c r="B9" t="str">
+        <v>Rajsamand 2021-22)</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v/>
+      </c>
+      <c r="E9" t="str">
+        <v/>
+      </c>
+      <c r="F9" t="str">
+        <v>22, Supply and</v>
+      </c>
+      <c r="G9" t="str">
+        <v/>
+      </c>
+      <c r="H9" t="str">
+        <v/>
+      </c>
+      <c r="I9" t="str">
+        <v/>
+      </c>
+      <c r="J9" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v/>
+      </c>
+      <c r="B10" t="str">
+        <v/>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v/>
+      </c>
+      <c r="E10" t="str">
+        <v/>
+      </c>
+      <c r="F10" t="str">
+        <v>Providing wireman for</v>
+      </c>
+      <c r="G10" t="str">
+        <v/>
+      </c>
+      <c r="H10" t="str">
+        <v/>
+      </c>
+      <c r="I10" t="str">
+        <v/>
+      </c>
+      <c r="J10" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v/>
+      </c>
+      <c r="B11" t="str">
+        <v/>
+      </c>
+      <c r="C11" t="str">
+        <v/>
+      </c>
+      <c r="D11" t="str">
+        <v/>
+      </c>
+      <c r="E11" t="str">
+        <v/>
+      </c>
+      <c r="F11" t="str">
+        <v>Elect mtc in Various</v>
+      </c>
+      <c r="G11" t="str">
+        <v/>
+      </c>
+      <c r="H11" t="str">
+        <v/>
+      </c>
+      <c r="I11" t="str">
+        <v/>
+      </c>
+      <c r="J11" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v/>
+      </c>
+      <c r="B12" t="str">
+        <v/>
+      </c>
+      <c r="C12" t="str">
+        <v/>
+      </c>
+      <c r="D12" t="str">
+        <v/>
+      </c>
+      <c r="E12" t="str">
+        <v/>
+      </c>
+      <c r="F12" t="str">
+        <v>Residence and Non</v>
+      </c>
+      <c r="G12" t="str">
+        <v/>
+      </c>
+      <c r="H12" t="str">
+        <v/>
+      </c>
+      <c r="I12" t="str">
+        <v/>
+      </c>
+      <c r="J12" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v/>
+      </c>
+      <c r="B13" t="str">
+        <v/>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+      <c r="D13" t="str">
+        <v/>
+      </c>
+      <c r="E13" t="str">
+        <v/>
+      </c>
+      <c r="F13" t="str">
+        <v>Residence building</v>
+      </c>
+      <c r="G13" t="str">
+        <v/>
+      </c>
+      <c r="H13" t="str">
+        <v/>
+      </c>
+      <c r="I13" t="str">
+        <v/>
+      </c>
+      <c r="J13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v/>
+      </c>
+      <c r="B14" t="str">
+        <v/>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+      <c r="D14" t="str">
+        <v/>
+      </c>
+      <c r="E14" t="str">
+        <v/>
+      </c>
+      <c r="F14" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="G14" t="str">
+        <v/>
+      </c>
+      <c r="H14" t="str">
+        <v/>
+      </c>
+      <c r="I14" t="str">
+        <v/>
+      </c>
+      <c r="J14" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="str">
+        <v/>
+      </c>
+      <c r="B15" t="str">
+        <v/>
+      </c>
+      <c r="C15" t="str">
+        <v/>
+      </c>
+      <c r="D15" t="str">
+        <v/>
+      </c>
+      <c r="E15" t="str">
+        <v/>
+      </c>
+      <c r="F15" t="str">
+        <v>Bill No: 40133589, Bill</v>
+      </c>
+      <c r="G15" t="str">
+        <v/>
+      </c>
+      <c r="H15" t="str">
+        <v/>
+      </c>
+      <c r="I15" t="str">
+        <v/>
+      </c>
+      <c r="J15" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="str">
+        <v/>
+      </c>
+      <c r="B16" t="str">
+        <v/>
+      </c>
+      <c r="C16" t="str">
+        <v/>
+      </c>
+      <c r="D16" t="str">
+        <v/>
+      </c>
+      <c r="E16" t="str">
+        <v/>
+      </c>
+      <c r="F16" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="G16" t="str">
+        <v/>
+      </c>
+      <c r="H16" t="str">
+        <v/>
+      </c>
+      <c r="I16" t="str">
+        <v/>
+      </c>
+      <c r="J16" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="str">
+        <v/>
+      </c>
+      <c r="B17" t="str">
+        <v/>
+      </c>
+      <c r="C17" t="str">
+        <v/>
+      </c>
+      <c r="D17" t="str">
+        <v/>
+      </c>
+      <c r="E17" t="str">
+        <v/>
+      </c>
+      <c r="F17" t="str">
+        <v>Payments (3 Running)</v>
+      </c>
+      <c r="G17" t="str">
+        <v/>
+      </c>
+      <c r="H17" t="str">
+        <v/>
+      </c>
+      <c r="I17" t="str">
+        <v/>
+      </c>
+      <c r="J17" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="str">
+        <v>26</v>
+      </c>
+      <c r="B18" t="str">
+        <v/>
+      </c>
+      <c r="C18" t="str">
+        <v/>
+      </c>
+      <c r="D18" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E18" t="str">
+        <v>21-06-2022</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Tvno: 15067 Mitul Enterprises</v>
+      </c>
+      <c r="G18" t="str">
+        <v/>
+      </c>
+      <c r="H18" t="str">
+        <v>915 21952.00</v>
+      </c>
+      <c r="I18" t="str">
+        <v>22,867</v>
+      </c>
+      <c r="J18" t="str">
+        <v>2059-80-053-01-01-21-V-P</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="str">
+        <v/>
+      </c>
+      <c r="B19" t="str">
+        <v/>
+      </c>
+      <c r="C19" t="str">
+        <v/>
+      </c>
+      <c r="D19" t="str">
+        <v/>
+      </c>
+      <c r="E19" t="str">
+        <v/>
+      </c>
+      <c r="F19" t="str">
+        <v>(Wo.No.:347 , Wo.</v>
+      </c>
+      <c r="G19" t="str">
+        <v/>
+      </c>
+      <c r="H19" t="str">
+        <v/>
+      </c>
+      <c r="I19" t="str">
+        <v/>
+      </c>
+      <c r="J19" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="str">
+        <v/>
+      </c>
+      <c r="B20" t="str">
+        <v/>
+      </c>
+      <c r="C20" t="str">
+        <v/>
+      </c>
+      <c r="D20" t="str">
+        <v/>
+      </c>
+      <c r="E20" t="str">
+        <v/>
+      </c>
+      <c r="F20" t="str">
+        <v>Date:30/07/2021,</v>
+      </c>
+      <c r="G20" t="str">
+        <v/>
+      </c>
+      <c r="H20" t="str">
+        <v/>
+      </c>
+      <c r="I20" t="str">
+        <v/>
+      </c>
+      <c r="J20" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="str">
+        <v/>
+      </c>
+      <c r="B21" t="str">
+        <v/>
+      </c>
+      <c r="C21" t="str">
+        <v/>
+      </c>
+      <c r="D21" t="str">
+        <v/>
+      </c>
+      <c r="E21" t="str">
+        <v/>
+      </c>
+      <c r="F21" t="str">
+        <v>AgreeMentNo 15/2021-</v>
+      </c>
+      <c r="G21" t="str">
+        <v/>
+      </c>
+      <c r="H21" t="str">
+        <v/>
+      </c>
+      <c r="I21" t="str">
+        <v/>
+      </c>
+      <c r="J21" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
+        <v/>
+      </c>
+      <c r="B22" t="str">
+        <v/>
+      </c>
+      <c r="C22" t="str">
+        <v/>
+      </c>
+      <c r="D22" t="str">
+        <v/>
+      </c>
+      <c r="E22" t="str">
+        <v/>
+      </c>
+      <c r="F22" t="str">
+        <v>22, Supply and</v>
+      </c>
+      <c r="G22" t="str">
+        <v/>
+      </c>
+      <c r="H22" t="str">
+        <v/>
+      </c>
+      <c r="I22" t="str">
+        <v/>
+      </c>
+      <c r="J22" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="str">
+        <v/>
+      </c>
+      <c r="B23" t="str">
+        <v/>
+      </c>
+      <c r="C23" t="str">
+        <v/>
+      </c>
+      <c r="D23" t="str">
+        <v/>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>Providing wireman for</v>
+      </c>
+      <c r="G23" t="str">
+        <v/>
+      </c>
+      <c r="H23" t="str">
+        <v/>
+      </c>
+      <c r="I23" t="str">
+        <v/>
+      </c>
+      <c r="J23" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v/>
+      </c>
+      <c r="B24" t="str">
+        <v/>
+      </c>
+      <c r="C24" t="str">
+        <v/>
+      </c>
+      <c r="D24" t="str">
+        <v/>
+      </c>
+      <c r="E24" t="str">
+        <v/>
+      </c>
+      <c r="F24" t="str">
+        <v>Elect mtc in Various</v>
+      </c>
+      <c r="G24" t="str">
+        <v/>
+      </c>
+      <c r="H24" t="str">
+        <v/>
+      </c>
+      <c r="I24" t="str">
+        <v/>
+      </c>
+      <c r="J24" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
+        <v/>
+      </c>
+      <c r="B25" t="str">
+        <v/>
+      </c>
+      <c r="C25" t="str">
+        <v/>
+      </c>
+      <c r="D25" t="str">
+        <v/>
+      </c>
+      <c r="E25" t="str">
+        <v/>
+      </c>
+      <c r="F25" t="str">
+        <v>Residence and Non</v>
+      </c>
+      <c r="G25" t="str">
+        <v/>
+      </c>
+      <c r="H25" t="str">
+        <v/>
+      </c>
+      <c r="I25" t="str">
+        <v/>
+      </c>
+      <c r="J25" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="str">
+        <v/>
+      </c>
+      <c r="B26" t="str">
+        <v/>
+      </c>
+      <c r="C26" t="str">
+        <v/>
+      </c>
+      <c r="D26" t="str">
+        <v/>
+      </c>
+      <c r="E26" t="str">
+        <v/>
+      </c>
+      <c r="F26" t="str">
+        <v>Residence building</v>
+      </c>
+      <c r="G26" t="str">
+        <v/>
+      </c>
+      <c r="H26" t="str">
+        <v/>
+      </c>
+      <c r="I26" t="str">
+        <v/>
+      </c>
+      <c r="J26" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v/>
+      </c>
+      <c r="B27" t="str">
+        <v/>
+      </c>
+      <c r="C27" t="str">
+        <v/>
+      </c>
+      <c r="D27" t="str">
+        <v/>
+      </c>
+      <c r="E27" t="str">
+        <v/>
+      </c>
+      <c r="F27" t="str">
+        <v>Udaipur) , Paymanager</v>
+      </c>
+      <c r="G27" t="str">
+        <v/>
+      </c>
+      <c r="H27" t="str">
+        <v/>
+      </c>
+      <c r="I27" t="str">
+        <v/>
+      </c>
+      <c r="J27" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v/>
+      </c>
+      <c r="B28" t="str">
+        <v/>
+      </c>
+      <c r="C28" t="str">
+        <v/>
+      </c>
+      <c r="D28" t="str">
+        <v/>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v>Bill No: 40133627, Bill</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v/>
+      </c>
+      <c r="J28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v/>
+      </c>
+      <c r="B29" t="str">
+        <v/>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v/>
+      </c>
+      <c r="E29" t="str">
+        <v/>
+      </c>
+      <c r="F29" t="str">
+        <v>Type: Work Order</v>
+      </c>
+      <c r="G29" t="str">
+        <v/>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v/>
+      </c>
+      <c r="B30" t="str">
+        <v/>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v/>
+      </c>
+      <c r="E30" t="str">
+        <v/>
+      </c>
+      <c r="F30" t="str">
+        <v>Payments (4 Running)</v>
+      </c>
+      <c r="G30" t="str">
+        <v/>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>27</v>
+      </c>
+      <c r="B31" t="str">
+        <v/>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E31" t="str">
+        <v>21-06-2022</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Tvno: 15068 H M Engineers ,</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v>200000.00</v>
+      </c>
+      <c r="I31" t="str">
+        <v>2,00,000</v>
+      </c>
+      <c r="J31" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v/>
+      </c>
+      <c r="B32" t="str">
+        <v/>
+      </c>
+      <c r="C32" t="str">
+        <v/>
+      </c>
+      <c r="D32" t="str">
+        <v/>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v/>
+      </c>
+      <c r="J32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v/>
+      </c>
+      <c r="B33" t="str">
+        <v/>
+      </c>
+      <c r="C33" t="str">
+        <v/>
+      </c>
+      <c r="D33" t="str">
+        <v/>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v>40133635, Bill Type:</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v/>
+      </c>
+      <c r="J33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v/>
+      </c>
+      <c r="B34" t="str">
+        <v/>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v/>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v/>
+      </c>
+      <c r="J34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>28</v>
+      </c>
+      <c r="B35" t="str">
+        <v/>
+      </c>
+      <c r="C35" t="str">
+        <v/>
+      </c>
+      <c r="D35" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E35" t="str">
+        <v>21-06-2022</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Tvno: 15069 Gupta Redio and</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v>299903.00</v>
+      </c>
+      <c r="I35" t="str">
+        <v>2,99,903</v>
+      </c>
+      <c r="J35" t="str">
+        <v>8443-00-108-00-00</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v/>
+      </c>
+      <c r="B36" t="str">
+        <v/>
+      </c>
+      <c r="C36" t="str">
+        <v/>
+      </c>
+      <c r="D36" t="str">
+        <v/>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>Electricals ,</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v/>
+      </c>
+      <c r="J36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v/>
+      </c>
+      <c r="B37" t="str">
+        <v/>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v/>
+      </c>
+      <c r="E37" t="str">
+        <v/>
+      </c>
+      <c r="F37" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G37" t="str">
+        <v/>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v/>
+      </c>
+      <c r="B38" t="str">
+        <v/>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v/>
+      </c>
+      <c r="E38" t="str">
+        <v/>
+      </c>
+      <c r="F38" t="str">
+        <v>40133649, Bill Type:</v>
+      </c>
+      <c r="G38" t="str">
+        <v/>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v/>
+      </c>
+      <c r="B39" t="str">
+        <v/>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v/>
+      </c>
+      <c r="E39" t="str">
+        <v/>
+      </c>
+      <c r="F39" t="str">
+        <v>Deposit Refund</v>
+      </c>
+      <c r="G39" t="str">
+        <v/>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>29</v>
+      </c>
+      <c r="B40" t="str">
+        <v/>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="E40" t="str">
+        <v>21-06-2022</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Tvno: 15205 Mitul Enterprises</v>
+      </c>
+      <c r="G40" t="str">
+        <v/>
+      </c>
+      <c r="H40" t="str">
+        <v>9,048 104068.00</v>
+      </c>
+      <c r="I40" t="str">
+        <v>1,13,116</v>
+      </c>
+      <c r="J40" t="str">
+        <v>2059-80-053-12-00-21-V-P</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v/>
+      </c>
+      <c r="B41" t="str">
+        <v/>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v/>
+      </c>
+      <c r="E41" t="str">
+        <v/>
+      </c>
+      <c r="F41" t="str">
+        <v>(Wo.No.:1112 , Wo.</v>
+      </c>
+      <c r="G41" t="str">
+        <v/>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v/>
+      </c>
+      <c r="B42" t="str">
+        <v/>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v/>
+      </c>
+      <c r="E42" t="str">
+        <v/>
+      </c>
+      <c r="F42" t="str">
+        <v>Date:05/01/2022,</v>
+      </c>
+      <c r="G42" t="str">
+        <v/>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v/>
+      </c>
+      <c r="B43" t="str">
+        <v/>
+      </c>
+      <c r="C43" t="str">
+        <v/>
+      </c>
+      <c r="D43" t="str">
+        <v/>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>AgreeMentNo 52/2021-</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v/>
+      </c>
+      <c r="J43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v/>
+      </c>
+      <c r="B44" t="str">
+        <v/>
+      </c>
+      <c r="C44" t="str">
+        <v/>
+      </c>
+      <c r="D44" t="str">
+        <v/>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>22, Elect Repair and</v>
+      </c>
+      <c r="G44" t="str">
+        <v/>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v/>
+      </c>
+      <c r="J44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v/>
+      </c>
+      <c r="B45" t="str">
+        <v/>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v/>
+      </c>
+      <c r="E45" t="str">
+        <v/>
+      </c>
+      <c r="F45" t="str">
+        <v>Mtc work in SP Office</v>
+      </c>
+      <c r="G45" t="str">
+        <v/>
+      </c>
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v/>
+      </c>
+      <c r="B46" t="str">
+        <v/>
+      </c>
+      <c r="C46" t="str">
+        <v/>
+      </c>
+      <c r="D46" t="str">
+        <v/>
+      </c>
+      <c r="E46" t="str">
+        <v/>
+      </c>
+      <c r="F46" t="str">
+        <v>Rajsamand 2021-22) ,</v>
+      </c>
+      <c r="G46" t="str">
+        <v/>
+      </c>
+      <c r="H46" t="str">
+        <v/>
+      </c>
+      <c r="I46" t="str">
+        <v/>
+      </c>
+      <c r="J46" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v/>
+      </c>
+      <c r="B47" t="str">
+        <v/>
+      </c>
+      <c r="C47" t="str">
+        <v/>
+      </c>
+      <c r="D47" t="str">
+        <v/>
+      </c>
+      <c r="E47" t="str">
+        <v/>
+      </c>
+      <c r="F47" t="str">
+        <v>Paymanager Bill No:</v>
+      </c>
+      <c r="G47" t="str">
+        <v/>
+      </c>
+      <c r="H47" t="str">
+        <v/>
+      </c>
+      <c r="I47" t="str">
+        <v/>
+      </c>
+      <c r="J47" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v/>
+      </c>
+      <c r="B48" t="str">
+        <v/>
+      </c>
+      <c r="C48" t="str">
+        <v/>
+      </c>
+      <c r="D48" t="str">
+        <v/>
+      </c>
+      <c r="E48" t="str">
+        <v/>
+      </c>
+      <c r="F48" t="str">
+        <v>40091421, Bill Type:</v>
+      </c>
+      <c r="G48" t="str">
+        <v/>
+      </c>
+      <c r="H48" t="str">
+        <v/>
+      </c>
+      <c r="I48" t="str">
+        <v/>
+      </c>
+      <c r="J48" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v/>
+      </c>
+      <c r="B49" t="str">
+        <v/>
+      </c>
+      <c r="C49" t="str">
+        <v/>
+      </c>
+      <c r="D49" t="str">
+        <v/>
+      </c>
+      <c r="E49" t="str">
+        <v/>
+      </c>
+      <c r="F49" t="str">
+        <v>Work Order Payments</v>
+      </c>
+      <c r="G49" t="str">
+        <v/>
+      </c>
+      <c r="H49" t="str">
+        <v/>
+      </c>
+      <c r="I49" t="str">
+        <v/>
+      </c>
+      <c r="J49" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v/>
+      </c>
+      <c r="B50" t="str">
+        <v/>
+      </c>
+      <c r="C50" t="str">
+        <v/>
+      </c>
+      <c r="D50" t="str">
+        <v/>
+      </c>
+      <c r="E50" t="str">
+        <v/>
+      </c>
+      <c r="F50" t="str">
+        <v>(3 &amp; Final)</v>
+      </c>
+      <c r="G50" t="str">
+        <v/>
+      </c>
+      <c r="H50" t="str">
+        <v/>
+      </c>
+      <c r="I50" t="str">
+        <v/>
+      </c>
+      <c r="J50" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>30 24-06-2022</v>
+      </c>
+      <c r="B51" t="str">
+        <v>CrNo: Ch No: Mitul Enterprises</v>
+      </c>
+      <c r="C51" t="str">
+        <v/>
+      </c>
+      <c r="D51" t="str">
+        <v>1,000.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E51" t="str">
+        <v>24-06-2022</v>
+      </c>
+      <c r="F51" t="str">
+        <v>ChlnNo: 2489738 Remittance to Treasury</v>
+      </c>
+      <c r="G51" t="str">
+        <v/>
+      </c>
+      <c r="H51" t="str">
+        <v>20,600 0.00</v>
+      </c>
+      <c r="I51" t="str">
+        <v>20,600</v>
+      </c>
+      <c r="J51" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v/>
+      </c>
+      <c r="B52" t="str">
+        <v>2489738</v>
+      </c>
+      <c r="C52" t="str">
+        <v/>
+      </c>
+      <c r="D52" t="str">
+        <v/>
+      </c>
+      <c r="E52" t="str">
+        <v/>
+      </c>
+      <c r="F52" t="str">
+        <v>GRN:63802514</v>
+      </c>
+      <c r="G52" t="str">
+        <v/>
+      </c>
+      <c r="H52" t="str">
+        <v/>
+      </c>
+      <c r="I52" t="str">
+        <v/>
+      </c>
+      <c r="J52" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>31 24-06-2022</v>
+      </c>
+      <c r="B53" t="str">
+        <v>CrNo: Ch No: Mitul Enterprises</v>
+      </c>
+      <c r="C53" t="str">
+        <v/>
+      </c>
+      <c r="D53" t="str">
+        <v>19,600.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E53" t="str">
+        <v>24-06-2022</v>
+      </c>
+      <c r="F53" t="str">
+        <v>ChlnNo: 2493065 Remittance to Treasury</v>
+      </c>
+      <c r="G53" t="str">
+        <v/>
+      </c>
+      <c r="H53" t="str">
+        <v>20,600 0.00</v>
+      </c>
+      <c r="I53" t="str">
+        <v>20,600</v>
+      </c>
+      <c r="J53" t="str">
+        <v>0075-00-800-52-01, 8443-</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v/>
+      </c>
+      <c r="B54" t="str">
+        <v>2489738</v>
+      </c>
+      <c r="C54" t="str">
+        <v/>
+      </c>
+      <c r="D54" t="str">
+        <v/>
+      </c>
+      <c r="E54" t="str">
+        <v/>
+      </c>
+      <c r="F54" t="str">
+        <v>GRN:63818796</v>
+      </c>
+      <c r="G54" t="str">
+        <v/>
+      </c>
+      <c r="H54" t="str">
+        <v/>
+      </c>
+      <c r="I54" t="str">
+        <v/>
+      </c>
+      <c r="J54" t="str">
+        <v>00-108-00-00</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>32 24-06-2022</v>
+      </c>
+      <c r="B55" t="str">
+        <v>CrNo: Ch No: Neha Electric</v>
+      </c>
+      <c r="C55" t="str">
+        <v/>
+      </c>
+      <c r="D55" t="str">
+        <v>1,000.00 0075-00-800-52-01</v>
+      </c>
+      <c r="E55" t="str">
+        <v/>
+      </c>
+      <c r="F55" t="str">
+        <v/>
+      </c>
+      <c r="G55" t="str">
+        <v/>
+      </c>
+      <c r="H55" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I55" t="str">
+        <v/>
+      </c>
+      <c r="J55" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v/>
+      </c>
+      <c r="B56" t="str">
+        <v>2493065</v>
+      </c>
+      <c r="C56" t="str">
+        <v/>
+      </c>
+      <c r="D56" t="str">
+        <v/>
+      </c>
+      <c r="E56" t="str">
+        <v/>
+      </c>
+      <c r="F56" t="str">
+        <v/>
+      </c>
+      <c r="G56" t="str">
+        <v/>
+      </c>
+      <c r="H56" t="str">
+        <v/>
+      </c>
+      <c r="I56" t="str">
+        <v/>
+      </c>
+      <c r="J56" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>33 24-06-2022</v>
+      </c>
+      <c r="B57" t="str">
+        <v>CrNo: Ch No: Neha Electric</v>
+      </c>
+      <c r="C57" t="str">
+        <v/>
+      </c>
+      <c r="D57" t="str">
+        <v>19,600.00 8443-00-108-00-00</v>
+      </c>
+      <c r="E57" t="str">
+        <v/>
+      </c>
+      <c r="F57" t="str">
+        <v/>
+      </c>
+      <c r="G57" t="str">
+        <v/>
+      </c>
+      <c r="H57" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="I57" t="str">
+        <v/>
+      </c>
+      <c r="J57" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v/>
+      </c>
+      <c r="B58" t="str">
+        <v>2493065</v>
+      </c>
+      <c r="C58" t="str">
+        <v/>
+      </c>
+      <c r="D58" t="str">
+        <v/>
+      </c>
+      <c r="E58" t="str">
+        <v/>
+      </c>
+      <c r="F58" t="str">
+        <v/>
+      </c>
+      <c r="G58" t="str">
+        <v/>
+      </c>
+      <c r="H58" t="str">
+        <v/>
+      </c>
+      <c r="I58" t="str">
+        <v/>
+      </c>
+      <c r="J58" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>34</v>
+      </c>
+      <c r="B59" t="str">
+        <v/>
+      </c>
+      <c r="C59" t="str">
+        <v/>
+      </c>
+      <c r="D59" t="str">
+        <v/>
+      </c>
+      <c r="E59" t="str">
+        <v/>
+      </c>
+      <c r="F59" t="str">
+        <v>Closing Balance</v>
+      </c>
+      <c r="G59" t="str">
+        <v/>
+      </c>
+      <c r="H59" t="str">
+        <v/>
+      </c>
+      <c r="I59" t="str">
+        <v/>
+      </c>
+      <c r="J59" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v/>
+      </c>
+      <c r="B60" t="str">
+        <v/>
+      </c>
+      <c r="C60" t="str">
+        <v/>
+      </c>
+      <c r="D60" t="str">
+        <v>124057.00</v>
+      </c>
+      <c r="E60" t="str">
+        <v/>
+      </c>
+      <c r="F60" t="str">
+        <v/>
+      </c>
+      <c r="G60" t="str">
+        <v/>
+      </c>
+      <c r="H60" t="str">
+        <v>124057.00 1329071.00</v>
+      </c>
+      <c r="I60" t="str">
+        <v>1453128.00</v>
+      </c>
+      <c r="J60" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Page 3 of 4</v>
+      </c>
+      <c r="B61" t="str">
+        <v/>
+      </c>
+      <c r="C61" t="str">
+        <v/>
+      </c>
+      <c r="D61" t="str">
+        <v/>
+      </c>
+      <c r="E61" t="str">
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <v/>
+      </c>
+      <c r="G61" t="str">
+        <v/>
+      </c>
+      <c r="H61" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:34 PM)</v>
+      </c>
+      <c r="I61" t="str">
+        <v/>
+      </c>
+      <c r="J61" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:J61"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="38.83203125" customWidth="1"/>
+    <col min="2" max="2" width="50.83203125" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>Signature of Sr.DAO/DAO/DA with seal</v>
+      </c>
+      <c r="B1" t="str">
+        <v>Column</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Signature of DO with seal</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v>(A.L.Verma, Sr.D.A.O.)</v>
+      </c>
+      <c r="B2" t="str">
+        <v>(Deepak Pareek, Ee Pwd Elect Dn Udaipur)</v>
+      </c>
+      <c r="C2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Page 4 of 4</v>
+      </c>
+      <c r="B3" t="str">
+        <v>Courtesy: https://wam.rajasthan.gov.in (Printed on 9/15/2025 5:02:34 PM)</v>
+      </c>
+      <c r="C3" t="str">
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:C3"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <cols>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="str">
+        <v>PDF to Excel Extraction Summary</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>Source File:</v>
+      </c>
+      <c r="B3" t="str">
+        <v>rpwa1-3.pdf</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Extraction Date:</v>
+      </c>
+      <c r="B4" t="str">
+        <v>9/16/2025</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Tables Extracted:</v>
+      </c>
+      <c r="B5" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Table Details:</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Table #</v>
+      </c>
+      <c r="B8" t="str">
+        <v>Rows</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Columns</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Confidence</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Sheet Name</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Table 1</v>
+      </c>
+      <c r="B9" t="str">
+        <v>55</v>
+      </c>
+      <c r="C9" t="str">
+        <v>9</v>
+      </c>
+      <c r="D9" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E9" t="str">
+        <v>Table 1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Table 2</v>
+      </c>
+      <c r="B10" t="str">
+        <v>53</v>
+      </c>
+      <c r="C10" t="str">
+        <v>9</v>
+      </c>
+      <c r="D10" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Table 2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Table 3</v>
+      </c>
+      <c r="B11" t="str">
+        <v>60</v>
+      </c>
+      <c r="C11" t="str">
+        <v>10</v>
+      </c>
+      <c r="D11" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E11" t="str">
+        <v>Table 3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Table 4</v>
+      </c>
+      <c r="B12" t="str">
+        <v>2</v>
+      </c>
+      <c r="C12" t="str">
+        <v>3</v>
+      </c>
+      <c r="D12" t="str">
+        <v>90%</v>
+      </c>
+      <c r="E12" t="str">
+        <v>Table 4</v>
+      </c>
+    </row>
+  </sheetData>
+  <ignoredErrors>
+    <ignoredError numberStoredAsText="1" sqref="A1:E12"/>
   </ignoredErrors>
 </worksheet>
 </file>